--- a/Exam 1/Test.xlsx
+++ b/Exam 1/Test.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10215" windowHeight="7680" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10215" windowHeight="7680" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Problem 1" sheetId="1" r:id="rId1"/>
     <sheet name="1 Both" sheetId="3" r:id="rId2"/>
     <sheet name="1 Temp" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet8" sheetId="8" r:id="rId4"/>
-    <sheet name="Problem 2" sheetId="6" r:id="rId5"/>
+    <sheet name="Problem 2" sheetId="6" r:id="rId4"/>
+    <sheet name="2 T analysis" sheetId="11" r:id="rId5"/>
     <sheet name="Problem 3" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -1544,141 +1544,6 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="1">
-        <v>78.400000000000006</v>
-      </c>
-      <c r="C4" s="1">
-        <v>74.466666666666669</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="1">
-        <v>4.7310344827586226</v>
-      </c>
-      <c r="C5" s="1">
-        <v>4.3264367816091962</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1">
-        <v>30</v>
-      </c>
-      <c r="C6" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="1">
-        <v>4.528735632183909</v>
-      </c>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0</v>
-      </c>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="1">
-        <v>58</v>
-      </c>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="1">
-        <v>7.1584318958918587</v>
-      </c>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" s="1">
-        <v>7.9402341036312971E-10</v>
-      </c>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="1">
-        <v>1.671552762454859</v>
-      </c>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" s="1">
-        <v>1.5880468207262594E-9</v>
-      </c>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" s="2">
-        <v>2.0017174841452352</v>
-      </c>
-      <c r="C14" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2027,6 +1892,141 @@
       <c r="C31">
         <v>79</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="1">
+        <v>74.466666666666669</v>
+      </c>
+      <c r="C4" s="1">
+        <v>78.400000000000006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4.3264367816091962</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4.7310344827586226</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1">
+        <v>30</v>
+      </c>
+      <c r="C6" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4.528735632183909</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1">
+        <v>58</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-7.1584318958918587</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="1">
+        <v>7.9402341036312971E-10</v>
+      </c>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1.671552762454859</v>
+      </c>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1.5880468207262594E-9</v>
+      </c>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2.0017174841452352</v>
+      </c>
+      <c r="C14" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
